--- a/debug/excel_info.xlsx
+++ b/debug/excel_info.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8360"/>
+    <workbookView windowWidth="20940" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -837,17 +837,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1212,11 +1211,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1243,7 +1242,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1361,7 +1360,7 @@
   <dimension ref="A1:DP14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,7 +1704,7 @@
   <dimension ref="A1:DJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3:AY14"/>
+      <selection activeCell="A1" sqref="A1:AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2706,7 +2705,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
